--- a/artfynd/A 58478-2025 artfynd.xlsx
+++ b/artfynd/A 58478-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130667093</v>
+        <v>130670771</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491408</v>
+        <v>491374</v>
       </c>
       <c r="R2" t="n">
-        <v>6759381</v>
+        <v>6759416</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130670771</v>
+        <v>130670627</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -827,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491374</v>
+        <v>491376</v>
       </c>
       <c r="R3" t="n">
-        <v>6759416</v>
+        <v>6759442</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -899,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130670627</v>
+        <v>130667093</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,34 +905,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491376</v>
+        <v>491408</v>
       </c>
       <c r="R4" t="n">
-        <v>6759442</v>
+        <v>6759381</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1228,7 +1228,7 @@
         <v>130665803</v>
       </c>
       <c r="B7" t="n">
-        <v>56452</v>
+        <v>56456</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>130661851</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>130664986</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>130671725</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1663,45 +1663,50 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130668644</v>
+        <v>130662234</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>491424</v>
+        <v>491455</v>
       </c>
       <c r="R11" t="n">
-        <v>6759256</v>
+        <v>6759425</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1770,50 +1775,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130662234</v>
+        <v>130668644</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>491455</v>
+        <v>491424</v>
       </c>
       <c r="R12" t="n">
-        <v>6759425</v>
+        <v>6759256</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1882,38 +1882,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130668452</v>
+        <v>130662909</v>
       </c>
       <c r="B13" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>491385</v>
+        <v>491455</v>
       </c>
       <c r="R13" t="n">
-        <v>6759286</v>
+        <v>6759425</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130665997</v>
+        <v>130668452</v>
       </c>
       <c r="B14" t="n">
         <v>8451</v>
@@ -2025,7 +2025,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>491418</v>
+        <v>491385</v>
       </c>
       <c r="R14" t="n">
-        <v>6759396</v>
+        <v>6759286</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2106,38 +2106,38 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130662909</v>
+        <v>130665997</v>
       </c>
       <c r="B15" t="n">
-        <v>57877</v>
+        <v>8451</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>491455</v>
+        <v>491418</v>
       </c>
       <c r="R15" t="n">
-        <v>6759425</v>
+        <v>6759396</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2218,50 +2218,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130661548</v>
+        <v>130661510</v>
       </c>
       <c r="B16" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>491487</v>
+        <v>491504</v>
       </c>
       <c r="R16" t="n">
-        <v>6759357</v>
+        <v>6759336</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,45 +2325,50 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130661510</v>
+        <v>130661548</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491504</v>
+        <v>491487</v>
       </c>
       <c r="R17" t="n">
-        <v>6759336</v>
+        <v>6759357</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2440,7 +2440,7 @@
         <v>130662331</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>130670281</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>130661613</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>130661581</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2982,45 +2982,50 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130664348</v>
+        <v>130668332</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491430</v>
+        <v>491384</v>
       </c>
       <c r="R23" t="n">
-        <v>6759427</v>
+        <v>6759354</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3089,50 +3094,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130668332</v>
+        <v>130664348</v>
       </c>
       <c r="B24" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491384</v>
+        <v>491430</v>
       </c>
       <c r="R24" t="n">
-        <v>6759354</v>
+        <v>6759427</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3316,7 +3316,7 @@
         <v>130668710</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3420,40 +3420,35 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130663880</v>
+        <v>130663940</v>
       </c>
       <c r="B27" t="n">
-        <v>56452</v>
+        <v>8451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>206004</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
@@ -3532,35 +3527,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130663940</v>
+        <v>130663880</v>
       </c>
       <c r="B28" t="n">
-        <v>8451</v>
+        <v>56456</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>206004</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
@@ -3642,7 +3642,7 @@
         <v>130669116</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/artfynd/A 58478-2025 artfynd.xlsx
+++ b/artfynd/A 58478-2025 artfynd.xlsx
@@ -1663,50 +1663,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130662234</v>
+        <v>130668644</v>
       </c>
       <c r="B11" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>491455</v>
+        <v>491424</v>
       </c>
       <c r="R11" t="n">
-        <v>6759425</v>
+        <v>6759256</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1775,45 +1770,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130668644</v>
+        <v>130662234</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>491424</v>
+        <v>491455</v>
       </c>
       <c r="R12" t="n">
-        <v>6759256</v>
+        <v>6759425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2982,50 +2982,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130668332</v>
+        <v>130664348</v>
       </c>
       <c r="B23" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491384</v>
+        <v>491430</v>
       </c>
       <c r="R23" t="n">
-        <v>6759354</v>
+        <v>6759427</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3094,45 +3089,50 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130664348</v>
+        <v>130668332</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491430</v>
+        <v>491384</v>
       </c>
       <c r="R24" t="n">
-        <v>6759427</v>
+        <v>6759354</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 58478-2025 artfynd.xlsx
+++ b/artfynd/A 58478-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130670771</v>
+        <v>130667093</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491374</v>
+        <v>491408</v>
       </c>
       <c r="R2" t="n">
-        <v>6759416</v>
+        <v>6759381</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130670627</v>
+        <v>130670771</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491376</v>
+        <v>491374</v>
       </c>
       <c r="R3" t="n">
-        <v>6759442</v>
+        <v>6759416</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130667093</v>
+        <v>130670627</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,39 +910,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491408</v>
+        <v>491376</v>
       </c>
       <c r="R4" t="n">
-        <v>6759381</v>
+        <v>6759442</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1663,45 +1663,50 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130668644</v>
+        <v>130662234</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>491424</v>
+        <v>491455</v>
       </c>
       <c r="R11" t="n">
-        <v>6759256</v>
+        <v>6759425</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1770,50 +1775,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130662234</v>
+        <v>130668644</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>491455</v>
+        <v>491424</v>
       </c>
       <c r="R12" t="n">
-        <v>6759425</v>
+        <v>6759256</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130668452</v>
+        <v>130665997</v>
       </c>
       <c r="B14" t="n">
         <v>8451</v>
@@ -2025,7 +2025,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>491385</v>
+        <v>491418</v>
       </c>
       <c r="R14" t="n">
-        <v>6759286</v>
+        <v>6759396</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130665997</v>
+        <v>130668452</v>
       </c>
       <c r="B15" t="n">
         <v>8451</v>
@@ -2137,7 +2137,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>491418</v>
+        <v>491385</v>
       </c>
       <c r="R15" t="n">
-        <v>6759396</v>
+        <v>6759286</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2218,45 +2218,50 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130661510</v>
+        <v>130661548</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>491504</v>
+        <v>491487</v>
       </c>
       <c r="R16" t="n">
-        <v>6759336</v>
+        <v>6759357</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2325,50 +2330,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130661548</v>
+        <v>130661510</v>
       </c>
       <c r="B17" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491487</v>
+        <v>491504</v>
       </c>
       <c r="R17" t="n">
-        <v>6759357</v>
+        <v>6759336</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130670281</v>
+        <v>130661581</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,39 +2667,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491315</v>
+        <v>491481</v>
       </c>
       <c r="R20" t="n">
-        <v>6759520</v>
+        <v>6759380</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2768,10 +2763,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130661613</v>
+        <v>130670281</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2779,34 +2774,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491477</v>
+        <v>491315</v>
       </c>
       <c r="R21" t="n">
-        <v>6759416</v>
+        <v>6759520</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130661581</v>
+        <v>130661613</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>491481</v>
+        <v>491477</v>
       </c>
       <c r="R22" t="n">
-        <v>6759380</v>
+        <v>6759416</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 58478-2025 artfynd.xlsx
+++ b/artfynd/A 58478-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130667093</v>
+        <v>130670771</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491408</v>
+        <v>491374</v>
       </c>
       <c r="R2" t="n">
-        <v>6759381</v>
+        <v>6759416</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130670771</v>
+        <v>130670627</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -827,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491374</v>
+        <v>491376</v>
       </c>
       <c r="R3" t="n">
-        <v>6759416</v>
+        <v>6759442</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -899,32 +894,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130670627</v>
+        <v>130661609</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491376</v>
+        <v>491477</v>
       </c>
       <c r="R4" t="n">
-        <v>6759442</v>
+        <v>6759416</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1006,45 +1001,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130661609</v>
+        <v>130667093</v>
       </c>
       <c r="B5" t="n">
-        <v>8451</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>491477</v>
+        <v>491408</v>
       </c>
       <c r="R5" t="n">
-        <v>6759416</v>
+        <v>6759381</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1663,50 +1663,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130662234</v>
+        <v>130668644</v>
       </c>
       <c r="B11" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>491455</v>
+        <v>491424</v>
       </c>
       <c r="R11" t="n">
-        <v>6759425</v>
+        <v>6759256</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1775,45 +1770,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130668644</v>
+        <v>130662234</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>491424</v>
+        <v>491455</v>
       </c>
       <c r="R12" t="n">
-        <v>6759256</v>
+        <v>6759425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2218,50 +2218,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130661548</v>
+        <v>130661510</v>
       </c>
       <c r="B16" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>491487</v>
+        <v>491504</v>
       </c>
       <c r="R16" t="n">
-        <v>6759357</v>
+        <v>6759336</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,45 +2325,50 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130661510</v>
+        <v>130661548</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491504</v>
+        <v>491487</v>
       </c>
       <c r="R17" t="n">
-        <v>6759336</v>
+        <v>6759357</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 58478-2025 artfynd.xlsx
+++ b/artfynd/A 58478-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130670771</v>
+        <v>130667093</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491374</v>
+        <v>491408</v>
       </c>
       <c r="R2" t="n">
-        <v>6759416</v>
+        <v>6759381</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,32 +792,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130670627</v>
+        <v>130661609</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491376</v>
+        <v>491477</v>
       </c>
       <c r="R3" t="n">
-        <v>6759442</v>
+        <v>6759416</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,32 +899,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130661609</v>
+        <v>130670627</v>
       </c>
       <c r="B4" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491477</v>
+        <v>491376</v>
       </c>
       <c r="R4" t="n">
-        <v>6759416</v>
+        <v>6759442</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1001,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130667093</v>
+        <v>130670771</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,39 +1017,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>491408</v>
+        <v>491374</v>
       </c>
       <c r="R5" t="n">
-        <v>6759381</v>
+        <v>6759416</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -2218,45 +2218,50 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130661510</v>
+        <v>130661548</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>491504</v>
+        <v>491487</v>
       </c>
       <c r="R16" t="n">
-        <v>6759336</v>
+        <v>6759357</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2325,50 +2330,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130661548</v>
+        <v>130661510</v>
       </c>
       <c r="B17" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491487</v>
+        <v>491504</v>
       </c>
       <c r="R17" t="n">
-        <v>6759357</v>
+        <v>6759336</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130661581</v>
+        <v>130670281</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,34 +2667,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491481</v>
+        <v>491315</v>
       </c>
       <c r="R20" t="n">
-        <v>6759380</v>
+        <v>6759520</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2763,10 +2768,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130670281</v>
+        <v>130661581</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2774,39 +2779,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>491315</v>
+        <v>491481</v>
       </c>
       <c r="R21" t="n">
-        <v>6759520</v>
+        <v>6759380</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2982,45 +2982,50 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130664348</v>
+        <v>130668332</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>491430</v>
+        <v>491384</v>
       </c>
       <c r="R23" t="n">
-        <v>6759427</v>
+        <v>6759354</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3089,50 +3094,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130668332</v>
+        <v>130664348</v>
       </c>
       <c r="B24" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>491384</v>
+        <v>491430</v>
       </c>
       <c r="R24" t="n">
-        <v>6759354</v>
+        <v>6759427</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 58478-2025 artfynd.xlsx
+++ b/artfynd/A 58478-2025 artfynd.xlsx
@@ -680,50 +680,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130667093</v>
+        <v>130661609</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>8451</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491408</v>
+        <v>491477</v>
       </c>
       <c r="R2" t="n">
-        <v>6759381</v>
+        <v>6759416</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,32 +787,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130661609</v>
+        <v>130670771</v>
       </c>
       <c r="B3" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,7 +822,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491477</v>
+        <v>491374</v>
       </c>
       <c r="R3" t="n">
         <v>6759416</v>
@@ -1006,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130670771</v>
+        <v>130667093</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,34 +1012,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>491374</v>
+        <v>491408</v>
       </c>
       <c r="R5" t="n">
-        <v>6759416</v>
+        <v>6759381</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130665997</v>
+        <v>130668452</v>
       </c>
       <c r="B14" t="n">
         <v>8451</v>
@@ -2025,7 +2025,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>491418</v>
+        <v>491385</v>
       </c>
       <c r="R14" t="n">
-        <v>6759396</v>
+        <v>6759286</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130668452</v>
+        <v>130665997</v>
       </c>
       <c r="B15" t="n">
         <v>8451</v>
@@ -2137,7 +2137,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>491385</v>
+        <v>491418</v>
       </c>
       <c r="R15" t="n">
-        <v>6759286</v>
+        <v>6759396</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2218,50 +2218,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130661548</v>
+        <v>130661510</v>
       </c>
       <c r="B16" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>491487</v>
+        <v>491504</v>
       </c>
       <c r="R16" t="n">
-        <v>6759357</v>
+        <v>6759336</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,45 +2325,50 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130661510</v>
+        <v>130661548</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>491504</v>
+        <v>491487</v>
       </c>
       <c r="R17" t="n">
-        <v>6759336</v>
+        <v>6759357</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130670281</v>
+        <v>130661613</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,39 +2667,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>491315</v>
+        <v>491477</v>
       </c>
       <c r="R20" t="n">
-        <v>6759520</v>
+        <v>6759416</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2875,10 +2870,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130661613</v>
+        <v>130670281</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,34 +2881,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>491477</v>
+        <v>491315</v>
       </c>
       <c r="R22" t="n">
-        <v>6759416</v>
+        <v>6759520</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3420,35 +3420,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130663940</v>
+        <v>130663880</v>
       </c>
       <c r="B27" t="n">
-        <v>8451</v>
+        <v>56456</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106545</v>
+        <v>206004</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
@@ -3527,40 +3532,35 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130663880</v>
+        <v>130663940</v>
       </c>
       <c r="B28" t="n">
-        <v>56456</v>
+        <v>8451</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>206004</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Brunnvasselån, Dlr</t>
